--- a/views/laporan/_dparep.xlsx
+++ b/views/laporan/_dparep.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>No</t>
   </si>
@@ -26,13 +26,25 @@
     <t>Kd Masalah</t>
   </si>
   <si>
+    <t>Pemilik</t>
+  </si>
+  <si>
     <t>Uraian</t>
   </si>
   <si>
-    <t>Kd Pemilik</t>
-  </si>
-  <si>
-    <t>Kd Pengolah</t>
+    <t>Tahun</t>
+  </si>
+  <si>
+    <t>Pengolah</t>
+  </si>
+  <si>
+    <t>Rak</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Ket. DPA</t>
   </si>
 </sst>
 </file>
@@ -47,6 +59,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -128,37 +141,57 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:F3"/>
+  <dimension ref="A2:J2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.8826530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.83163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.64285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.5561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.4285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="59.8826530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.9234693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.33163265306122"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.52551020408163"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
